--- a/FOREX/data/FOREX_4A_historical.xlsx
+++ b/FOREX/data/FOREX_4A_historical.xlsx
@@ -7551,7 +7551,9 @@
       <c r="CD34" t="n">
         <v>134.824892129396</v>
       </c>
-      <c r="CE34" t="inlineStr"/>
+      <c r="CE34" t="n">
+        <v>132.789965549211</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -21541,7 +21543,9 @@
       <c r="CD100" t="n">
         <v>1660.31342692319</v>
       </c>
-      <c r="CE100" t="inlineStr"/>
+      <c r="CE100" t="n">
+        <v>2065.53733363432</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -24847,7 +24851,9 @@
       <c r="CD116" t="n">
         <v>12736.4089344439</v>
       </c>
-      <c r="CE116" t="inlineStr"/>
+      <c r="CE116" t="n">
+        <v>13814.7635321376</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -40489,7 +40495,7 @@
         <v>12.9670833194074</v>
       </c>
       <c r="CE191" t="n">
-        <v>25.9811353884575</v>
+        <v>25.9811358039391</v>
       </c>
     </row>
     <row r="192">
@@ -42023,7 +42029,9 @@
       <c r="CD198" t="n">
         <v>3195.47118876489</v>
       </c>
-      <c r="CE198" t="inlineStr"/>
+      <c r="CE198" t="n">
+        <v>3273.18468495434</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -42974,7 +42982,7 @@
         <v>3.20301413386498</v>
       </c>
       <c r="CE202" t="n">
-        <v>3.2238155746006</v>
+        <v>3.22645421655679</v>
       </c>
     </row>
     <row r="203">
@@ -43672,7 +43680,9 @@
       <c r="CD205" t="n">
         <v>9.7621490566298</v>
       </c>
-      <c r="CE205" t="inlineStr"/>
+      <c r="CE205" t="n">
+        <v>12.6074808351195</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">

--- a/FOREX/data/FOREX_4A_historical.xlsx
+++ b/FOREX/data/FOREX_4A_historical.xlsx
@@ -17370,7 +17370,9 @@
       <c r="CD81" t="n">
         <v>7.79415241525111</v>
       </c>
-      <c r="CE81" t="inlineStr"/>
+      <c r="CE81" t="n">
+        <v>8.270269033021201</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -37565,7 +37567,9 @@
       <c r="CD176" t="n">
         <v>13691.9122406192</v>
       </c>
-      <c r="CE176" t="inlineStr"/>
+      <c r="CE176" t="n">
+        <v>14871.0501804673</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">

--- a/FOREX/data/FOREX_4A_historical.xlsx
+++ b/FOREX/data/FOREX_4A_historical.xlsx
@@ -33985,40 +33985,40 @@
         <v>8848.20060785786</v>
       </c>
       <c r="BO159" t="n">
-        <v>9124.62365687845</v>
+        <v>9124.589116055189</v>
       </c>
       <c r="BP159" t="n">
-        <v>8291.1387955229</v>
+        <v>8290.596553046889</v>
       </c>
       <c r="BQ159" t="n">
-        <v>7703.04587553429</v>
+        <v>7703.03808452377</v>
       </c>
       <c r="BR159" t="n">
-        <v>6894.46865686479</v>
+        <v>6894.54757081736</v>
       </c>
       <c r="BS159" t="n">
-        <v>7651.6899252757</v>
+        <v>7653.67879140595</v>
       </c>
       <c r="BT159" t="n">
-        <v>7224.94036619417</v>
+        <v>7259.98357439856</v>
       </c>
       <c r="BU159" t="n">
-        <v>6616.92189035754</v>
+        <v>6620.68872136877</v>
       </c>
       <c r="BV159" t="n">
-        <v>6777.59184849937</v>
+        <v>6772.60128270736</v>
       </c>
       <c r="BW159" t="n">
-        <v>6565.9920238083</v>
+        <v>6540.47435878585</v>
       </c>
       <c r="BX159" t="n">
-        <v>6779.55351469692</v>
+        <v>6779.54382382237</v>
       </c>
       <c r="BY159" t="n">
-        <v>7282.26402287055</v>
+        <v>7282.27914465305</v>
       </c>
       <c r="BZ159" t="n">
-        <v>7881.81757493455</v>
+        <v>7881.85019296727</v>
       </c>
       <c r="CA159" t="n">
         <v>7790.79694077429</v>
@@ -37530,55 +37530,55 @@
         <v>4000.55314505577</v>
       </c>
       <c r="BO176" t="n">
-        <v>4267.81746307023</v>
+        <v>4.26781746307023</v>
       </c>
       <c r="BP176" t="n">
-        <v>4357.69025178766</v>
+        <v>4.35769025178766</v>
       </c>
       <c r="BQ176" t="n">
-        <v>4569.10749088366</v>
+        <v>4.56910749088366</v>
       </c>
       <c r="BR176" t="n">
-        <v>4711.16735855159</v>
+        <v>4.71116735855159</v>
       </c>
       <c r="BS176" t="n">
-        <v>5217.30121903972</v>
+        <v>5.21730121903972</v>
       </c>
       <c r="BT176" t="n">
-        <v>6069.40589141125</v>
+        <v>6.06940589141125</v>
       </c>
       <c r="BU176" t="n">
-        <v>6865.95206020651</v>
+        <v>6.86595206020651</v>
       </c>
       <c r="BV176" t="n">
-        <v>6653.70766835367</v>
+        <v>6.65370766835367</v>
       </c>
       <c r="BW176" t="n">
-        <v>6583.96463549022</v>
+        <v>6.58396463549022</v>
       </c>
       <c r="BX176" t="n">
-        <v>6873.70276103259</v>
+        <v>6.87370276103259</v>
       </c>
       <c r="BY176" t="n">
-        <v>7108.54649331871</v>
+        <v>7.10854649331871</v>
       </c>
       <c r="BZ176" t="n">
-        <v>8743.289711810139</v>
+        <v>8.74328971181014</v>
       </c>
       <c r="CA176" t="n">
-        <v>10238.706769429</v>
+        <v>10.238706769429</v>
       </c>
       <c r="CB176" t="n">
-        <v>11229.8416311809</v>
+        <v>11.2298416311809</v>
       </c>
       <c r="CC176" t="n">
-        <v>12449.090257133</v>
+        <v>12.449090257133</v>
       </c>
       <c r="CD176" t="n">
-        <v>13691.9122406192</v>
+        <v>13.6919122406192</v>
       </c>
       <c r="CE176" t="n">
-        <v>14871.0501648477</v>
+        <v>14.8710501648477</v>
       </c>
     </row>
     <row r="177">
@@ -39347,7 +39347,9 @@
       <c r="CD186" t="n">
         <v>258.508234568979</v>
       </c>
-      <c r="CE186" t="inlineStr"/>
+      <c r="CE186" t="n">
+        <v>283.141460025488</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -41430,7 +41432,9 @@
       <c r="CD195" t="n">
         <v>29.9567609029321</v>
       </c>
-      <c r="CE195" t="inlineStr"/>
+      <c r="CE195" t="n">
+        <v>29.5021431217109</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
